--- a/3-data-analysis/nyc.xlsx
+++ b/3-data-analysis/nyc.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>borough</t>
+  </si>
+  <si>
+    <t>land_area</t>
   </si>
   <si>
     <t>population</t>
@@ -102,7 +105,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -399,69 +413,87 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>42.1</v>
       </c>
       <c r="C2">
         <v>1418207</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>70.81999999999999</v>
       </c>
       <c r="C3">
         <v>2559903</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>22.83</v>
       </c>
       <c r="C4">
         <v>1628706</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>108.53</v>
       </c>
       <c r="C5">
         <v>2253858</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>58.37</v>
       </c>
       <c r="C6">
         <v>476143</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B6">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>